--- a/data/trans_orig/Q64A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>102.7476273532131</v>
+        <v>103.0531813099181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>113.5377548102565</v>
+        <v>112.6661431930845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107.7946037462949</v>
+        <v>108.8618193391629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130.2908317529151</v>
+        <v>130.4800108528889</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>52.34550710193665</v>
+        <v>52.43314988855029</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>73.74589806747575</v>
+        <v>73.24334010270969</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>73.65919493953972</v>
+        <v>72.9190106933692</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>98.25486763855862</v>
+        <v>99.41852106166776</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>91.43506695241796</v>
+        <v>91.36745071631866</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101.8137400599294</v>
+        <v>101.4613416126997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98.54905708890308</v>
+        <v>97.36551620080168</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>120.9305138760029</v>
+        <v>121.0846205361308</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>124.9154273951952</v>
+        <v>127.1913789956996</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>141.9399652905801</v>
+        <v>140.5929334944092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>138.30950823323</v>
+        <v>139.6190495373083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157.8924183054681</v>
+        <v>159.2280666791376</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>78.93680482597522</v>
+        <v>78.39390895037731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>104.207181432761</v>
+        <v>105.1016510025001</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>100.4659316782848</v>
+        <v>100.283551393882</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>119.9735886586282</v>
+        <v>121.2142952091978</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>109.4830267644237</v>
+        <v>109.5364178891066</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>123.274057137404</v>
+        <v>122.4179568846027</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119.3406393903386</v>
+        <v>119.3909819049787</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>140.3281796166884</v>
+        <v>139.7407784307717</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>93.95987763078833</v>
+        <v>94.01938157280587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>110.1378202598996</v>
+        <v>110.7118305225186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104.3511423089888</v>
+        <v>104.4091776728666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119.0453609750041</v>
+        <v>119.7424652649125</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>63.86952419456487</v>
+        <v>64.44388183986356</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>71.12236063117975</v>
+        <v>71.60752983281786</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>76.47892760970903</v>
+        <v>77.70496139770859</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>95.64098078284015</v>
+        <v>95.7863950927829</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>86.55817514688175</v>
+        <v>86.83021863260309</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97.83110280585885</v>
+        <v>97.85930877949509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94.80182208005485</v>
+        <v>96.45646580422802</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>111.8930337701766</v>
+        <v>111.177334137464</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>113.5056914594444</v>
+        <v>114.0301015480739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>134.2441895173099</v>
+        <v>135.0521273415976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>126.2462870970907</v>
+        <v>128.2310126240695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>140.5901816169213</v>
+        <v>141.0032049593829</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>86.80854963957164</v>
+        <v>86.45801078795145</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>94.76519045683956</v>
+        <v>95.13386446101363</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>101.0658245328626</v>
+        <v>100.3341224528762</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>111.5341638381949</v>
+        <v>112.4357949226889</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>101.6308509615528</v>
+        <v>102.0872818530564</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>114.916840693662</v>
+        <v>114.9939649257529</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>112.0812106744903</v>
+        <v>113.77785892753</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>125.7840353242652</v>
+        <v>125.8931446360084</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>102.1472191222098</v>
+        <v>102.3192536262746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>117.1274489154371</v>
+        <v>116.4205178947534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91.72820000151451</v>
+        <v>92.02453207051175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115.1235544460992</v>
+        <v>114.8865093412317</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>57.02019295136054</v>
+        <v>57.86348168858488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>75.39906177702245</v>
+        <v>76.13289066465542</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>64.19152393006203</v>
+        <v>64.04491854754518</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>101.0755665076742</v>
+        <v>100.7765945468917</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>89.01110541808085</v>
+        <v>89.85705686166982</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104.2876547944231</v>
+        <v>103.7871637950088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82.19107835267027</v>
+        <v>82.30049954200145</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>112.8454460589088</v>
+        <v>112.6547803032198</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>123.8895103254088</v>
+        <v>124.0351974138571</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>145.4754728686768</v>
+        <v>143.9452059288871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114.9919048480726</v>
+        <v>114.867844396011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>142.5536492053453</v>
+        <v>142.2110037899519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>81.37966858245643</v>
+        <v>82.38558307936984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>101.5450849604047</v>
+        <v>100.4989228660548</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>81.15049710715878</v>
+        <v>81.95431259444649</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>121.5412368208675</v>
+        <v>122.4420426929585</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>105.7267893519506</v>
+        <v>106.8044831071611</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123.5086147687682</v>
+        <v>123.6026569012722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97.75150408166652</v>
+        <v>97.33584271500372</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>131.5461778523281</v>
+        <v>130.0703151589713</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>87.65216095836435</v>
+        <v>87.30558705019514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>112.8585160800763</v>
+        <v>113.0477962028417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114.9498163385718</v>
+        <v>116.1516970735459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125.9242985155406</v>
+        <v>126.8779155590818</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>68.29744009296451</v>
+        <v>68.44408012469115</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>76.79281486165408</v>
+        <v>77.16303902317023</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>99.16368180685174</v>
+        <v>98.87375377310477</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>112.769827218558</v>
+        <v>113.4433303404784</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>81.74412305722889</v>
+        <v>81.83121331717076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101.0069003303639</v>
+        <v>101.1242186057049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111.5140884408323</v>
+        <v>110.9141717495134</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>123.2614587650082</v>
+        <v>123.9173714145266</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>104.1401369789797</v>
+        <v>103.9712338533906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>135.9079546775489</v>
+        <v>136.6652463410134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>137.6543552408729</v>
+        <v>138.1860585079015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>149.4615621820313</v>
+        <v>149.4165480689854</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>86.28947284393632</v>
+        <v>87.17213006262278</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>98.09292528881296</v>
+        <v>97.86420294264339</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>126.1619488217041</v>
+        <v>125.8034335384204</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>132.9176226480719</v>
+        <v>134.2401777886141</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>94.17106902037689</v>
+        <v>94.50713897215151</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>117.8057090424743</v>
+        <v>118.1399097885294</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>128.1711601293508</v>
+        <v>129.3832530808819</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>139.1158721773549</v>
+        <v>139.5993803553817</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>100.2416406903324</v>
+        <v>100.2393262688478</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>118.6097944775666</v>
+        <v>119.1888575154554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110.9067631306913</v>
+        <v>110.413813972862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128.2605794010131</v>
+        <v>128.6711261082274</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>67.29605815321723</v>
+        <v>67.33010255593132</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>79.67720354532904</v>
+        <v>79.47521408741538</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>85.72078643653715</v>
+        <v>85.52287984955279</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>106.6389217232786</v>
+        <v>107.6453011873747</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>89.87733863314854</v>
+        <v>90.21410186652342</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104.83185126896</v>
+        <v>104.6445725012589</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101.3534900595675</v>
+        <v>101.3296780440662</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>120.497077764643</v>
+        <v>120.7151769259805</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>109.9327450119441</v>
+        <v>109.4656671523721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>131.9210268280949</v>
+        <v>131.6271493516261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122.4936406435765</v>
+        <v>122.2970706532598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140.8989874549471</v>
+        <v>140.7470695948443</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>78.26500382994116</v>
+        <v>78.56874866732927</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>91.80098096100251</v>
+        <v>92.02364630247347</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>97.30949838171341</v>
+        <v>96.90424642262212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>117.3929927892913</v>
+        <v>117.4278155005203</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>97.24199957398388</v>
+        <v>98.01262376484635</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114.1725368231755</v>
+        <v>114.1724420512596</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109.9931561325467</v>
+        <v>110.1213700920479</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>129.0921020421698</v>
+        <v>129.2383079993631</v>
       </c>
     </row>
     <row r="19">
